--- a/CARD_SPENDING_DATA/02_혁신아이디어분야_카드소비데이터(신한카드)_데이터정의서.xlsx
+++ b/CARD_SPENDING_DATA/02_혁신아이디어분야_카드소비데이터(신한카드)_데이터정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leehyoungwook/Desktop/DA/CARD_SPENDING_DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE06319-5AB4-8549-9EC1-AFA6368BD2BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2897DD27-30B9-5943-8310-780ED041990F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="1640" windowWidth="18200" windowHeight="14220" tabRatio="819" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9700" yWindow="1440" windowWidth="18200" windowHeight="14220" tabRatio="819" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="카드소비" sheetId="6" r:id="rId1"/>
@@ -2594,8 +2594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:H21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -3156,8 +3156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J60" sqref="J60"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -4183,7 +4183,7 @@
   <dimension ref="B1:C168"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
